--- a/7RMartSupermarket_AutomationProject/src/main/resources/testData.xlsx
+++ b/7RMartSupermarket_AutomationProject/src/main/resources/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donat\eclipse-workspace\Automation_Project\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donat\git\7RMart\7RMartSupermarket_AutomationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F69D1E-C013-4D5B-9FDC-6666C82836FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E3BC74-7BBE-4673-A282-E26B6CA2EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{A3EF27F0-27AB-4FF0-9D28-CAA49078CB08}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20004" windowHeight="11088" xr2:uid="{A3EF27F0-27AB-4FF0-9D28-CAA49078CB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,17 @@
     <sheet name="SearchCategory" sheetId="11" r:id="rId12"/>
     <sheet name="SearchProduct" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>UserNamePassword</t>
   </si>
@@ -71,9 +61,6 @@
   </si>
   <si>
     <t>NewPassword</t>
-  </si>
-  <si>
-    <t>Dona@1998</t>
   </si>
   <si>
     <t>Staff</t>
@@ -301,6 +288,12 @@
   </si>
   <si>
     <t>GreenApple</t>
+  </si>
+  <si>
+    <t>DonaT</t>
+  </si>
+  <si>
+    <t>Donatjohn@1998</t>
   </si>
 </sst>
 </file>
@@ -692,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458C026-4688-4269-9F08-F5569FEF4A59}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,6 +728,14 @@
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -754,24 +755,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -791,72 +792,72 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -874,13 +875,13 @@
         <v>80</v>
       </c>
       <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -900,12 +901,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -925,30 +926,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +962,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,51 +975,51 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1044,26 +1045,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1083,30 +1084,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1126,12 +1127,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1157,18 +1158,18 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201326CB-1D20-46A4-8B92-6D25FED51A22}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1191,24 +1192,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1228,18 +1229,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1259,24 +1260,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartSupermarket_AutomationProject/src/main/resources/testData.xlsx
+++ b/7RMartSupermarket_AutomationProject/src/main/resources/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donat\git\7RMart\7RMartSupermarket_AutomationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E3BC74-7BBE-4673-A282-E26B6CA2EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF1E200-4C9E-43E9-A6F6-1B6474E30E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20004" windowHeight="11088" xr2:uid="{A3EF27F0-27AB-4FF0-9D28-CAA49078CB08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3EF27F0-27AB-4FF0-9D28-CAA49078CB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,26 @@
     <sheet name="SearchCategory" sheetId="11" r:id="rId12"/>
     <sheet name="SearchProduct" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>UserNamePassword</t>
   </si>
@@ -61,6 +70,9 @@
   </si>
   <si>
     <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Dona@1998</t>
   </si>
   <si>
     <t>Staff</t>
@@ -288,12 +300,6 @@
   </si>
   <si>
     <t>GreenApple</t>
-  </si>
-  <si>
-    <t>DonaT</t>
-  </si>
-  <si>
-    <t>Donatjohn@1998</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,24 +761,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -792,72 +798,72 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -875,13 +881,13 @@
         <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +907,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -926,30 +932,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +968,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,51 +981,51 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1045,26 +1051,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1084,30 +1090,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1127,12 +1133,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1158,18 +1164,18 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1192,24 +1198,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1229,18 +1235,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1260,24 +1266,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
